--- a/_MUT_USERBIN/SMS.xlsx
+++ b/_MUT_USERBIN/SMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Grdbldr\MUT_Examples\_MUT_USERBIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E94034A-2953-4CEB-B5CC-6696E56DCE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A2272-AF48-4B7D-8699-11A4A9CB14DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3CC94877-FEF5-43A5-8762-2FC8851D07F9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SMS" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
